--- a/prep_and_checklists/MarieCrouchMatthewRialDinner  /PREPLIST_MarieCrouchMatthewRialDinner  _08-05-2025_0.xlsx
+++ b/prep_and_checklists/MarieCrouchMatthewRialDinner  /PREPLIST_MarieCrouchMatthewRialDinner  _08-05-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/MarieCrouchMatthewRialDinner  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B6A35-D176-5F4E-934E-DFF5343340FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C832BE-28B5-DF4E-B1E3-95461C6938BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
-  <si>
-    <t xml:space="preserve">MarieCrouchMatthewRialDinner  , Guests: 40   , 5:00 PM - 7:00 PM   ,Friday, August 22, 2025  </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="127">
   <si>
     <t xml:space="preserve">Location: Greenhouse  </t>
   </si>
@@ -51,9 +48,6 @@
     <t>Sides</t>
   </si>
   <si>
-    <t>Timing TBD</t>
-  </si>
-  <si>
     <t>Hamachi Crudo</t>
   </si>
   <si>
@@ -66,18 +60,12 @@
     <t>Dry-Aged Ribeye</t>
   </si>
   <si>
-    <t>Grilled Branzino</t>
-  </si>
-  <si>
     <t>Broccolini</t>
   </si>
   <si>
     <t>black onion powder</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>brunoise daikon</t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>mince caper</t>
   </si>
   <si>
-    <t>pin-bone / tray-out branzino</t>
-  </si>
-  <si>
     <t>yuzu-mandarin vinaigrette</t>
   </si>
   <si>
@@ -351,9 +336,6 @@
     <t>4 quarts</t>
   </si>
   <si>
-    <t>3 quarts, * See AM Prep</t>
-  </si>
-  <si>
     <t>1 x recipe</t>
   </si>
   <si>
@@ -375,9 +357,6 @@
     <t>2 pints, * See AM Prep</t>
   </si>
   <si>
-    <t xml:space="preserve">12 fillets  </t>
-  </si>
-  <si>
     <t>1/2 case</t>
   </si>
   <si>
@@ -412,6 +391,30 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Halibut</t>
+  </si>
+  <si>
+    <t>portion 6oz / 10% brine for 30 min halibut</t>
+  </si>
+  <si>
+    <t>40 portions</t>
+  </si>
+  <si>
+    <t>2x recipe, * See AM Prep</t>
+  </si>
+  <si>
+    <t>2 pints, * Pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>4 quarts, * See AM Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie Crouch Matthew Rial Dinner  , Guests: 40   , 5:00 PM - 7:00 PM   ,Friday, August 22, 2025  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinner (5-7pm) </t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,6 +576,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,10 +882,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -893,441 +902,441 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="9"/>
       <c r="D3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
+        <v>102</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
+      <c r="A25" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="D31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>125</v>
+        <v>42</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="59" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1341,7 +1350,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1351,277 +1360,278 @@
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>